--- a/data/에기평/에기평_후기_GPT결과.xlsx
+++ b/data/에기평/에기평_후기_GPT결과.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\ibco-review_analysis\data\에기평\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF7FDAF-628D-4FF3-A627-3643370244FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9B8CE6-E42C-420B-8BCF-8901B7972B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$26</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -776,19 +789,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1095,14 +1114,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="10" max="10" width="42.3984375" style="7" customWidth="1"/>
     <col min="12" max="12" width="25.3984375" customWidth="1"/>
     <col min="13" max="13" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="40.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="57.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.2" x14ac:dyDescent="0.65">
@@ -1133,30 +1155,30 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1184,26 +1206,26 @@
       <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <v>3</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1231,26 +1253,26 @@
       <c r="I3" t="s">
         <v>113</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="3">
         <v>1</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1278,26 +1300,26 @@
       <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="3">
         <v>3</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1325,26 +1347,26 @@
       <c r="I5" t="s">
         <v>113</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <v>3</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1372,26 +1394,26 @@
       <c r="I6" t="s">
         <v>63</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="3">
         <v>3</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1419,22 +1441,22 @@
       <c r="I7" t="s">
         <v>67</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <v>4</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="3" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1466,22 +1488,22 @@
       <c r="I8" t="s">
         <v>67</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="3">
         <v>3</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="3" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1513,26 +1535,26 @@
       <c r="I9" t="s">
         <v>63</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="3">
         <v>3</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1560,26 +1582,26 @@
       <c r="I10" t="s">
         <v>67</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="3">
         <v>3</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1607,26 +1629,26 @@
       <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="3">
         <v>4</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1654,26 +1676,26 @@
       <c r="I12" t="s">
         <v>63</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="3">
         <v>3</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1701,26 +1723,26 @@
       <c r="I13" t="s">
         <v>114</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="3">
         <v>3</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1748,26 +1770,26 @@
       <c r="I14" t="s">
         <v>114</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="3">
         <v>4</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1795,26 +1817,26 @@
       <c r="I15" t="s">
         <v>67</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="3">
         <v>3</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1842,26 +1864,26 @@
       <c r="I16" t="s">
         <v>114</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="3">
         <v>5</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1889,26 +1911,26 @@
       <c r="I17" t="s">
         <v>63</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="3">
         <v>3</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1936,26 +1958,26 @@
       <c r="I18" t="s">
         <v>67</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="3">
         <v>2</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1983,26 +2005,26 @@
       <c r="I19" t="s">
         <v>67</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="3">
         <v>3</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2030,26 +2052,26 @@
       <c r="I20" t="s">
         <v>114</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="3">
         <v>3</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2077,26 +2099,26 @@
       <c r="I21" t="s">
         <v>114</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="3">
         <v>2</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2124,26 +2146,26 @@
       <c r="I22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="3">
         <v>3</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2171,22 +2193,22 @@
       <c r="I23" t="s">
         <v>67</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="3">
         <v>2</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="3" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2218,26 +2240,26 @@
       <c r="I24" t="s">
         <v>63</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="3">
         <v>3</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="P24" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="Q24" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2265,26 +2287,26 @@
       <c r="I25" t="s">
         <v>67</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="3">
         <v>1</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="P25" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="Q25" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2312,22 +2334,22 @@
       <c r="I26" t="s">
         <v>67</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="3">
         <v>1</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="P26" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="Q26" s="3" t="s">
         <v>198</v>
       </c>
     </row>
